--- a/article/graphics.xlsx
+++ b/article/graphics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="7" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 1." sheetId="1" r:id="rId1"/>
@@ -23,6 +23,11 @@
     <sheet name="Figure 9." sheetId="16" r:id="rId9"/>
     <sheet name="Figure 10." sheetId="21" r:id="rId10"/>
     <sheet name="Figure 11." sheetId="22" r:id="rId11"/>
+    <sheet name="Figure 12." sheetId="23" r:id="rId12"/>
+    <sheet name="Figure 13." sheetId="25" r:id="rId13"/>
+    <sheet name="Figure 14." sheetId="27" r:id="rId14"/>
+    <sheet name="Figure 15." sheetId="29" r:id="rId15"/>
+    <sheet name="Figure 16." sheetId="30" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,9 +38,23 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+  <si>
+    <t>X Axis</t>
+  </si>
+  <si>
+    <t>Y Axis</t>
+  </si>
+  <si>
+    <t>Z Axis</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +72,14 @@
     </font>
     <font>
       <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -60,7 +87,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,8 +106,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -187,6 +220,24 @@
       <bottom style="thin">
         <color theme="2" tint="-0.249977111117893"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -362,11 +413,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -381,71 +567,93 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,8 +663,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF38E29"/>
       <color rgb="FFF44B3E"/>
-      <color rgb="FFF38E29"/>
     </mruColors>
   </colors>
   <extLst>
@@ -16147,6 +16355,6649 @@
               </a:outerShdw>
             </a:effectLst>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Oval 31"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609726" y="1257300"/>
+          <a:ext cx="5067299" cy="5067300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0">
+            <a:alpha val="80000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Oval 14"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2409825" y="2324100"/>
+          <a:ext cx="2971800" cy="2971800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050">
+            <a:alpha val="80000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>409575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Oval 15"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="1371600"/>
+          <a:ext cx="2847975" cy="2847975"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050">
+            <a:alpha val="80000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Oval 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1581150" y="1657350"/>
+          <a:ext cx="990600" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F38E29">
+            <a:alpha val="80000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="F38E29"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Oval 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733799" y="3457574"/>
+          <a:ext cx="1085851" cy="1085851"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F38E29">
+            <a:alpha val="80000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="F38E29"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Oval 8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="1123950"/>
+          <a:ext cx="590550" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F38E29">
+            <a:alpha val="80000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="F38E29"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314322</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238123</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Oval 9"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4943472" y="4391024"/>
+          <a:ext cx="1466851" cy="1466851"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F38E29">
+            <a:alpha val="80000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="F38E29"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>464345</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Oval 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876426" y="1676400"/>
+          <a:ext cx="130969" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>73820</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Oval 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485901" y="1419225"/>
+          <a:ext cx="130969" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>169069</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152900" y="3419475"/>
+          <a:ext cx="130969" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>407194</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Oval 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3876675" y="3333750"/>
+          <a:ext cx="130969" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>26194</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Oval 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3495675" y="1247775"/>
+          <a:ext cx="130969" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>350044</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Oval 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3305175" y="1552575"/>
+          <a:ext cx="130969" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>464344</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Oval 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5476875" y="5734050"/>
+          <a:ext cx="130969" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>64294</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Oval 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4562475" y="3924300"/>
+          <a:ext cx="130969" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>409575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>473870</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Oval 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2400301" y="1838325"/>
+          <a:ext cx="130969" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>330994</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Oval 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3800475" y="4200525"/>
+          <a:ext cx="130969" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>321469</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Oval 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3790950" y="2857500"/>
+          <a:ext cx="130969" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>350044</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Oval 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3305175" y="1323975"/>
+          <a:ext cx="130969" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150019</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Oval 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3105150" y="1343025"/>
+          <a:ext cx="130969" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>273844</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Oval 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6315075" y="4743450"/>
+          <a:ext cx="130969" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>226219</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Oval 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5753100" y="4610100"/>
+          <a:ext cx="130969" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>159545</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Oval 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057276" y="1123950"/>
+          <a:ext cx="130969" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>400049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438650" y="1828799"/>
+          <a:ext cx="2028825" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1800" b="1"/>
+            <a:t>Bounding</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1800" b="1" baseline="0"/>
+            <a:t> Sphere</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1600" b="1" baseline="0"/>
+            <a:t>Level 3</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>333374</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2590800" y="4914899"/>
+          <a:ext cx="2028825" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1800" b="1"/>
+            <a:t>Bounding</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1800" b="1" baseline="0"/>
+            <a:t> Sphere</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1600" b="1" baseline="0"/>
+            <a:t>Level 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>314324</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectangle 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438650" y="2990849"/>
+          <a:ext cx="2028825" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F38E29"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1800" b="1"/>
+            <a:t>Bounding</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1800" b="1" baseline="0"/>
+            <a:t> Sphere</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1600" b="1" baseline="0"/>
+            <a:t>Level 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>158681</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>215884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>357501</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>235213</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="Isosceles Triangle 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="15409588">
+          <a:off x="734201" y="630964"/>
+          <a:ext cx="5734329" cy="5856670"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="57150"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>230732</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>371476</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Isosceles Triangle 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1863202" y="1929879"/>
+          <a:ext cx="3076577" cy="4284118"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050">
+            <a:alpha val="80000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>40386</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>88629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161244</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>445388</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Isosceles Triangle 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16655117">
+          <a:off x="3046635" y="3464130"/>
+          <a:ext cx="1309259" cy="2178258"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F38E29">
+            <a:alpha val="80000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="F38E29"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>156703</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>433853</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>322011</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Isosceles Triangle 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="15760915">
+          <a:off x="2929698" y="2513055"/>
+          <a:ext cx="1117808" cy="2120103"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F38E29">
+            <a:alpha val="80000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="F38E29"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>c</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3914775" y="3076576"/>
+          <a:ext cx="1019175" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>381002</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2714625" y="3676650"/>
+          <a:ext cx="1323975" cy="38102"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>342902</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3390901" y="4629152"/>
+          <a:ext cx="1142999" cy="409573"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133353</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Arrow Connector 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3009901" y="4333875"/>
+          <a:ext cx="1200149" cy="85728"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>105028</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>102540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>116251</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>308182</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Isosceles Triangle 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="14693298">
+          <a:off x="2160469" y="542649"/>
+          <a:ext cx="2586892" cy="3611673"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050">
+            <a:alpha val="80000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>298449</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>282166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>383533</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>137207</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Isosceles Triangle 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="14639225">
+          <a:off x="2270845" y="1281570"/>
+          <a:ext cx="1283791" cy="2142484"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F38E29">
+            <a:alpha val="80000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="F38E29"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>158074</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>46484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>321091</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>419283</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Isosceles Triangle 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="14579360">
+          <a:off x="3691733" y="1503925"/>
+          <a:ext cx="1325299" cy="2220417"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F38E29">
+            <a:alpha val="80000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="F38E29"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="4810124"/>
+          <a:ext cx="2028825" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1800" b="1"/>
+            <a:t>Bounding</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1800" b="1" baseline="0"/>
+            <a:t> Cone</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1600" b="1" baseline="0"/>
+            <a:t>Level 3</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>466724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1771650" y="2847974"/>
+          <a:ext cx="2028825" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1800" b="1"/>
+            <a:t>Bounding</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1800" b="1" baseline="0"/>
+            <a:t> Cone</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1600" b="1" baseline="0"/>
+            <a:t>Level 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>304799</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="1076324"/>
+          <a:ext cx="2028825" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F38E29"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1800" b="1"/>
+            <a:t>Bounding</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1800" b="1" baseline="0"/>
+            <a:t> Cone</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1600" b="1" baseline="0"/>
+            <a:t>Level 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>400052</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4352925" y="2466976"/>
+          <a:ext cx="1000125" cy="314326"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>238126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>428627</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3819525" y="2143126"/>
+          <a:ext cx="962025" cy="666751"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>466728</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2647951" y="1657351"/>
+          <a:ext cx="990599" cy="714377"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>352426</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>247653</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2562226" y="2257426"/>
+          <a:ext cx="1190624" cy="371477"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5623</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362198" y="361949"/>
+          <a:ext cx="720000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>474</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rounded Rectangle 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752600" y="2800349"/>
+          <a:ext cx="1628775" cy="714376"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Unsorted Array</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Step</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 0</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5623</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>26624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="Rectangle 133"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362198" y="752474"/>
+          <a:ext cx="720000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>501</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5623</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>55199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="Rectangle 134"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362198" y="1142999"/>
+          <a:ext cx="720000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>569</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5623</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>83774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="Rectangle 135"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362198" y="1533524"/>
+          <a:ext cx="720000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>153</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5623</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>112349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="Rectangle 136"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362198" y="1924049"/>
+          <a:ext cx="720000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>323</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5623</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>140924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="Rectangle 137"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362198" y="2314574"/>
+          <a:ext cx="720000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>120</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>5623</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="Rectangle 139"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990973" y="361949"/>
+          <a:ext cx="720000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>5623</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>26624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="Rectangle 140"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990973" y="752474"/>
+          <a:ext cx="720000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>50</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>5623</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>55199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="Rectangle 141"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990973" y="1142999"/>
+          <a:ext cx="720000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>15</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>5623</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>83774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="Rectangle 142"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990973" y="1533524"/>
+          <a:ext cx="720000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>32</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>5623</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>112349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="Rectangle 143"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990973" y="1924049"/>
+          <a:ext cx="720000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>47</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>5623</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>140924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="Rectangle 144"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990973" y="2314574"/>
+          <a:ext cx="720000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>56</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>5625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="Rectangle 151"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5800725" y="371475"/>
+          <a:ext cx="720000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>5625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>36150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="Rectangle 152"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5800725" y="762000"/>
+          <a:ext cx="720000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>5625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>64725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="Rectangle 153"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5800725" y="1152525"/>
+          <a:ext cx="720000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>5625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>93300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="Rectangle 154"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5800725" y="1543050"/>
+          <a:ext cx="720000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>5625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>121875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="Rectangle 155"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5800725" y="1933575"/>
+          <a:ext cx="720000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>5625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>150450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="Rectangle 156"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5800725" y="2324100"/>
+          <a:ext cx="720000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>5623</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="Rectangle 157"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610473" y="371474"/>
+          <a:ext cx="720000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>20</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>5623</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>36149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="Rectangle 158"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610473" y="761999"/>
+          <a:ext cx="720000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>53</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>5623</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>64724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="Rectangle 159"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610473" y="1152524"/>
+          <a:ext cx="720000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>23</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>5623</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>93299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="Rectangle 160"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610473" y="1543049"/>
+          <a:ext cx="720000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>74</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>5623</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>121874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="Rectangle 161"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610473" y="1933574"/>
+          <a:ext cx="720000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>5623</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>150449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="Rectangle 162"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610473" y="2324099"/>
+          <a:ext cx="720000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>69</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="Rounded Rectangle 163"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7172325" y="2771774"/>
+          <a:ext cx="1628775" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Sorted Array</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Step 3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="165" name="Rounded Rectangle 164"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3533775" y="2800349"/>
+          <a:ext cx="1628775" cy="714376"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Unsorted Array</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Step</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="Rounded Rectangle 165"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5353050" y="2800349"/>
+          <a:ext cx="1628775" cy="714376"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Unsorted Array</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Step</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>297824</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>60750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="170" name="Straight Arrow Connector 169"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4791074" y="1504950"/>
+          <a:ext cx="936000" cy="3600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>297824</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>70275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="171" name="Straight Arrow Connector 170"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2981324" y="1514475"/>
+          <a:ext cx="936000" cy="3600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>297824</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>79800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="172" name="Straight Arrow Connector 171"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6600824" y="1524000"/>
+          <a:ext cx="936000" cy="3600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>447675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Flowchart: Connector 23"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4391025" y="1400175"/>
+          <a:ext cx="3371850" cy="3371850"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050">
+            <a:alpha val="50000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>448387</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>209580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>510983</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>21617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18831303">
+          <a:off x="3888366" y="2389351"/>
+          <a:ext cx="5527037" cy="2119996"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Flowchart: Connector 19"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="1533525"/>
+          <a:ext cx="2105025" cy="2105025"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>118590</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>210207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>256190</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>414973</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2175990" y="686457"/>
+          <a:ext cx="1166300" cy="1157266"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>341587</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>414973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>118590</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>197069</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="855937" y="1843723"/>
+          <a:ext cx="1320053" cy="734596"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>118590</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>59121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>367862</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>414973</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2175990" y="535371"/>
+          <a:ext cx="763622" cy="1308352"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>413845</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>52552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>118590</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>414973</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="928195" y="1481302"/>
+          <a:ext cx="1247795" cy="362421"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>145073</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>450605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>116498</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>155330</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2716823" y="2831855"/>
+          <a:ext cx="2028825" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1800" b="1"/>
+            <a:t>Intersected Point </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="1"/>
+            <a:t>Object</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>140677</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>5128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>112102</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>186103</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6295292" y="1910128"/>
+          <a:ext cx="2022964" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1800" b="1"/>
+            <a:t>Ambient Occlusion </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="1"/>
+            <a:t>Hemisphere</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>139944</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>226401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>111369</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>407376</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6294559" y="2607651"/>
+          <a:ext cx="2022964" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F38E29"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1800" b="1"/>
+            <a:t>Intersected</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1800" b="1" baseline="0"/>
+            <a:t> Point</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1800" b="1" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="1" baseline="0"/>
+            <a:t>Normal</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>117774</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>447675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>413049</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="1"/>
+          <a:endCxn id="24" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5775624" y="1400175"/>
+          <a:ext cx="301326" cy="1394124"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>255634</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>465221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>118380</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>413049</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="1"/>
+          <a:endCxn id="24" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4871596" y="1893971"/>
+          <a:ext cx="888515" cy="900328"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>413049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>117774</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1057275" y="1841799"/>
+          <a:ext cx="1117899" cy="1196676"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>413049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>117774</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="1"/>
+          <a:endCxn id="24" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4391025" y="2794299"/>
+          <a:ext cx="1384599" cy="291801"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>117774</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>413049</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1866900" y="581025"/>
+          <a:ext cx="308274" cy="1260774"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65315</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>315685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>116646</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>414643</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Straight Arrow Connector 54"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1608365" y="1268185"/>
+          <a:ext cx="565681" cy="575208"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="F38E29"/>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>449872</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>510816</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>211669</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Isosceles Triangle 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19166355" flipV="1">
+          <a:off x="964222" y="1438280"/>
+          <a:ext cx="3147044" cy="2107139"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 49971"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050">
+            <a:alpha val="50000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Flowchart: Connector 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="2009775"/>
+          <a:ext cx="2105025" cy="2105025"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>272385</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>42604</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>117774</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>413049</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+          <a:endCxn id="19" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1815435" y="2423854"/>
+          <a:ext cx="1388439" cy="846695"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>145073</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>450605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>116498</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>155330</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3745523" y="3784355"/>
+          <a:ext cx="2028825" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1800" b="1"/>
+            <a:t>Intersected Point </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="1"/>
+            <a:t>Object</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>140677</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>5128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>112102</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>186103</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2712427" y="1433878"/>
+          <a:ext cx="2028825" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1800" b="1"/>
+            <a:t>Shadow Ray</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1800" b="1" baseline="0"/>
+            <a:t> Area</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139944</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>226401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>111369</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>407376</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2711694" y="2131401"/>
+          <a:ext cx="2028825" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F38E29"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1800" b="1"/>
+            <a:t>Light Source</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>404553</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>51464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>117774</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>413049</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+          <a:endCxn id="19" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2461953" y="2432714"/>
+          <a:ext cx="741921" cy="837835"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>413413</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>357446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>117774</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>413049</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2470813" y="1786196"/>
+          <a:ext cx="733061" cy="1484353"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Sun 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2747111">
+          <a:off x="1685924" y="1647825"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="sun">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F38E29"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -26215,7 +33066,7 @@
   <dimension ref="E2:AD40"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AC25"/>
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26957,7 +33808,7 @@
   <dimension ref="E2:AD37"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AC33"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27505,6 +34356,1075 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:M13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="32"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="37"/>
+    </row>
+    <row r="5" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="32"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="37"/>
+    </row>
+    <row r="6" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="32"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="37"/>
+    </row>
+    <row r="7" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="32"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="37"/>
+    </row>
+    <row r="8" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="32"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="37"/>
+    </row>
+    <row r="9" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="32"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="37"/>
+    </row>
+    <row r="10" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="32"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="37"/>
+    </row>
+    <row r="11" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="32"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="37"/>
+    </row>
+    <row r="12" spans="3:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="37"/>
+    </row>
+    <row r="13" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M3:M12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:M13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="32"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="37"/>
+    </row>
+    <row r="5" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="32"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="37"/>
+    </row>
+    <row r="6" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="32"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="37"/>
+    </row>
+    <row r="7" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="32"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="37"/>
+    </row>
+    <row r="8" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="32"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="37"/>
+    </row>
+    <row r="9" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="32"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="37"/>
+    </row>
+    <row r="10" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="32"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="37"/>
+    </row>
+    <row r="11" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="32"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="37"/>
+    </row>
+    <row r="12" spans="3:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="37"/>
+    </row>
+    <row r="13" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="M3:M12"/>
+    <mergeCell ref="C13:L13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E2:AC37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T39" sqref="T39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="5:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="5"/>
+    </row>
+    <row r="3" spans="5:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="5"/>
+    </row>
+    <row r="4" spans="5:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="5"/>
+    </row>
+    <row r="6" spans="5:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+    </row>
+    <row r="8" spans="5:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+    </row>
+    <row r="9" spans="5:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="5:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="5:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="17" spans="5:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+    </row>
+    <row r="18" spans="5:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+    </row>
+    <row r="23" spans="5:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+    </row>
+    <row r="24" spans="5:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+    </row>
+    <row r="25" spans="5:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+    </row>
+    <row r="26" spans="5:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+    </row>
+    <row r="27" spans="5:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+    </row>
+    <row r="28" spans="5:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+    </row>
+    <row r="29" spans="5:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+    </row>
+    <row r="30" spans="5:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+    </row>
+    <row r="31" spans="5:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+    </row>
+    <row r="32" spans="5:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+    </row>
+    <row r="37" spans="5:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40"/>
+    </row>
+    <row r="3" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
+    </row>
+    <row r="4" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+    </row>
+    <row r="5" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+    </row>
+    <row r="6" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+    </row>
+    <row r="7" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+    </row>
+    <row r="8" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+    </row>
+    <row r="9" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+    </row>
+    <row r="10" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+    </row>
+    <row r="11" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+    </row>
+    <row r="12" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:H14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="3:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
+    </row>
+    <row r="5" spans="3:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
+    </row>
+    <row r="6" spans="3:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
+    </row>
+    <row r="7" spans="3:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40"/>
+    </row>
+    <row r="8" spans="3:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="40"/>
+    </row>
+    <row r="9" spans="3:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
+    </row>
+    <row r="10" spans="3:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
+    </row>
+    <row r="11" spans="3:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
+    </row>
+    <row r="12" spans="3:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
+    </row>
+    <row r="13" spans="3:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
+    </row>
+    <row r="14" spans="3:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
@@ -27617,8 +35537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/article/graphics.xlsx
+++ b/article/graphics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="7" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="6" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 1." sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="Figure 14." sheetId="27" r:id="rId14"/>
     <sheet name="Figure 15." sheetId="29" r:id="rId15"/>
     <sheet name="Figure 16." sheetId="30" r:id="rId16"/>
+    <sheet name="Figure 17." sheetId="32" r:id="rId17"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -642,18 +643,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9096,13 +9097,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9165,13 +9166,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>358725</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>179024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9234,13 +9235,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>30525</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9303,13 +9304,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>49575</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9372,13 +9373,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>68625</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9441,13 +9442,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>1950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>74250</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9510,13 +9511,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>93300</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9579,13 +9580,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>125775</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>1950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9648,13 +9649,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>131400</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9717,13 +9718,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>163875</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>1950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9786,13 +9787,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>182925</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9855,13 +9856,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>201975</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9924,13 +9925,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>221025</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9993,13 +9994,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>240075</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>1950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10062,13 +10063,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>245700</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10131,13 +10132,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>278175</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>1950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10200,13 +10201,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>297225</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>1950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10269,13 +10270,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>316275</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10338,13 +10339,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>332133</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>320658</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10407,13 +10408,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>353133</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>341658</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10476,13 +10477,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>19758</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>1950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>8283</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10545,13 +10546,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10599,13 +10600,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>300662</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>151158</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>111816</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10703,13 +10704,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>358725</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>17100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10774,13 +10775,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>30525</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>17101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10845,13 +10846,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>49575</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>17101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10916,13 +10917,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>68625</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>17101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10987,13 +10988,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>21001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>74250</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11058,13 +11059,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>93300</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>17101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11129,13 +11130,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>125775</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>21001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11198,13 +11199,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11267,13 +11268,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11336,13 +11337,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>358725</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>179024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11405,13 +11406,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>30525</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11474,13 +11475,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>49575</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11543,13 +11544,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>68625</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11612,13 +11613,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>1950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>74250</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11681,13 +11682,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>93300</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11750,13 +11751,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>125775</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>1950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11819,13 +11820,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>131400</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11888,13 +11889,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>163875</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>1950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11957,13 +11958,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>182925</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12026,13 +12027,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>201975</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12095,13 +12096,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>221025</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12164,13 +12165,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>240075</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>1950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12233,13 +12234,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>245700</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12302,13 +12303,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>278175</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>1950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12371,13 +12372,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>297225</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>1950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12440,13 +12441,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>316275</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12509,13 +12510,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>332133</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>320658</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12578,13 +12579,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>353133</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>341658</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12647,13 +12648,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>19758</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>1950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>8283</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12716,13 +12717,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>360000</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>179024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12778,13 +12779,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>87675</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>177075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12845,13 +12846,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>30525</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>431</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12907,13 +12908,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>51525</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>40050</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12972,13 +12973,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>125775</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13037,13 +13038,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>106725</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13104,13 +13105,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>68625</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13169,13 +13170,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1950</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>1950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13231,13 +13232,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>87675</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13298,13 +13299,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>32475</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>21000</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>431</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13360,13 +13361,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>51525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>40050</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13425,13 +13426,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>125775</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>1950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13490,13 +13491,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>108675</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>1950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>97200</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13557,13 +13558,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>68625</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>3900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>1950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13622,13 +13623,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13704,13 +13705,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13786,13 +13787,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>184125</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>17100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>184125</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13838,13 +13839,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>205763</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>17101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>243863</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13890,13 +13891,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>224813</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>17101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>260963</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>1950</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13942,13 +13943,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>243863</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>17101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>301013</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>1950</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13994,13 +13995,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>260963</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>358163</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14046,13 +14047,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>280013</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>17101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>70463</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14098,13 +14099,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>301013</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>145421</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14150,13 +14151,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>360000</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>179024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14212,13 +14213,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>30525</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14274,13 +14275,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>49575</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14336,13 +14337,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>193947</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>2587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>182472</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>638</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14403,13 +14404,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>211047</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>178471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>199572</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>176522</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14470,13 +14471,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>230097</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>2587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>218623</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>638</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14537,13 +14538,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>243903</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>178471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>232428</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>176522</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14604,13 +14605,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>67092</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>55616</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14666,13 +14667,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>88087</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>76612</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14731,13 +14732,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>107137</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>95662</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14796,13 +14797,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>338627</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>329636</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>431</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14861,13 +14862,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>6546</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>355727</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>431</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14926,13 +14927,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>24354</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>12879</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14991,13 +14992,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>254742</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>243267</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>431</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15058,13 +15059,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>278072</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>266597</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15125,13 +15126,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>305405</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>293930</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15192,13 +15193,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>324455</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>312980</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>431</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15259,13 +15260,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>123822</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>112347</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15324,13 +15325,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>144822</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>133348</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15389,13 +15390,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>164028</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>152553</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15454,13 +15455,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15539,13 +15540,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>178593</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>155972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>61818</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>49378</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15598,13 +15599,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>340063</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>154303</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>10234</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>43423</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15660,13 +15661,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>193901</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>156229</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>318701</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>48972</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15724,13 +15725,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>88041</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>155972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>153891</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>49378</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15786,13 +15787,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15841,13 +15842,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15896,13 +15897,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180000</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>179024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>184125</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15948,13 +15949,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>242329</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>243863</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16000,13 +16001,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>260963</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>263325</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1950</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16052,13 +16053,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>299060</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>301013</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16104,13 +16105,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>358163</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>7235</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>2587</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16156,13 +16157,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>68030</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>70463</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16208,13 +16209,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>145421</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>153157</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16260,13 +16261,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>272087</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>92766</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23006,19 +23007,5070 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>281612</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>179733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>140391</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="219" name="Rounded Rectangle 218"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1367462" y="1989483"/>
+          <a:ext cx="3433138" cy="322608"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Prefix Sum Scan &amp; Line Drawing</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>358725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362200" y="361949"/>
+          <a:ext cx="349200" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2745150" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>49575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3126150" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F44B3E"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>68625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3507150" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>74250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886200" y="363900"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>93300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>125775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4650150" y="363900"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>131400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029200" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>163875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5412150" y="363900"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F38E29"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>182925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5793150" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F38E29"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>201975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6174150" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>221025</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6555150" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F38E29"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>240075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6936150" y="363900"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>245700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>278175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7698150" y="363900"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>297225</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8079150" y="363900"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>316275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8460150" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>332133</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>320658</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8837958" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1"/>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>353133</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>341658</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9220908" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>10233</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>360708</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601908" y="363900"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rounded Rectangle 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="361950"/>
+          <a:ext cx="1809750" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Intersection</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Results</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>182218</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>182218</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Straight Arrow Connector 68"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1268068" y="2172942"/>
+          <a:ext cx="0" cy="722658"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>182218</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>182218</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Straight Arrow Connector 69"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1268068" y="723900"/>
+          <a:ext cx="0" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>281612</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>149916</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Rounded Rectangle 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1367462" y="913158"/>
+          <a:ext cx="3433138" cy="322608"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Prefix Sum Scan &amp; Dychotomic Search</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>55725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>31995</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="Rectangle 107"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362200" y="685800"/>
+          <a:ext cx="1494000" cy="70095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F44B3E"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>131925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>31995</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="Rectangle 108"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886200" y="685800"/>
+          <a:ext cx="1494000" cy="70095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>208125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>31995</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="Rectangle 109"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5410200" y="685800"/>
+          <a:ext cx="1494000" cy="70095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F38E29"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>284325</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>31995</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="Rectangle 110"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="685800"/>
+          <a:ext cx="1494000" cy="70095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="Picture 111"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8143875" y="904875"/>
+          <a:ext cx="371475" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>360525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>31995</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="Rectangle 112"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8458200" y="685800"/>
+          <a:ext cx="1494000" cy="70095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>358725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>179024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="Rectangle 138"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362200" y="361949"/>
+          <a:ext cx="349200" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F44B3E"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="Rectangle 139"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2745150" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>49575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="Rectangle 140"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3126150" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>68625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="Rectangle 141"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3507150" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>74250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="Rectangle 142"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886200" y="363900"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>93300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="Rectangle 143"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>125775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="Rectangle 144"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4650150" y="363900"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>131400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="Rectangle 145"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029200" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>163875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="Rectangle 146"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5412150" y="363900"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F38E29"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>182925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="Rectangle 147"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5793150" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F38E29"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>201975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="Rectangle 148"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6174150" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F38E29"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>221025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="Rectangle 149"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6555150" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>240075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="Rectangle 150"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6936150" y="363900"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>245700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="Rectangle 151"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>278175</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="Rectangle 152"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7698150" y="363900"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>297225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="Rectangle 153"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8079150" y="363900"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>316275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="Rectangle 154"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8460150" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>332133</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>320658</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="Rectangle 155"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8837958" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1"/>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>353133</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>341658</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="Rectangle 156"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9220908" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>10233</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>360708</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="Rectangle 157"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601908" y="363900"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="Rounded Rectangle 158"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="361950"/>
+          <a:ext cx="1809750" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Local Reduction Results</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>55725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>31995</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="Rectangle 159"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362200" y="685800"/>
+          <a:ext cx="1494000" cy="70095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F44B3E"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>131925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>31995</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="Rectangle 160"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886200" y="685800"/>
+          <a:ext cx="1494000" cy="70095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>208125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>31995</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="Rectangle 161"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5410200" y="685800"/>
+          <a:ext cx="1494000" cy="70095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F38E29"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>284325</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>31995</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="Rectangle 162"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="685800"/>
+          <a:ext cx="1494000" cy="70095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>360525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>31995</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="Rectangle 163"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8458200" y="685800"/>
+          <a:ext cx="1494000" cy="70095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>358725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="165" name="Rectangle 164"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362200" y="2533649"/>
+          <a:ext cx="349200" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F44B3E"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="Rectangle 165"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2745150" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>49575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="Rectangle 166"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3126150" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>68625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="168" name="Rectangle 167"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3507150" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F38E29"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>74250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="169" name="Rectangle 168"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886200" y="363900"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F38E29"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>93300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="Rectangle 169"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F38E29"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>125775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="171" name="Rectangle 170"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4650150" y="363900"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>131400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="172" name="Rectangle 171"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029200" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>163875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="Rectangle 172"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5412150" y="363900"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>182925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="174" name="Rectangle 173"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5793150" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1"/>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>201975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="Rectangle 174"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6174150" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>221025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="176" name="Rectangle 175"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6555150" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>240075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="177" name="Rectangle 176"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6936150" y="363900"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>245700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="178" name="Rectangle 177"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>278175</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="179" name="Rectangle 178"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7698150" y="363900"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>297225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="180" name="Rectangle 179"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8079150" y="363900"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>316275</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="181" name="Rectangle 180"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8460150" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>332133</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>320658</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="182" name="Rectangle 181"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8837958" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>353133</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>341658</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="183" name="Rectangle 182"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9220908" y="361950"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>10233</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>360708</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="184" name="Rectangle 183"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601908" y="363900"/>
+          <a:ext cx="350475" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="185" name="Rounded Rectangle 184"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="361950"/>
+          <a:ext cx="1809750" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Global Reduction</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Results</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23084,13 +28136,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23153,13 +28205,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -23208,13 +28260,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23268,13 +28320,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23332,13 +28384,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23405,13 +28457,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23477,13 +28529,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23546,13 +28598,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23619,13 +28671,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23676,13 +28728,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23733,13 +28785,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23795,13 +28847,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23857,13 +28909,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>461963</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>461963</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -23910,13 +28962,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>461963</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>471488</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -23963,13 +29015,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>471488</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -24020,13 +29072,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -24098,13 +29150,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -24160,13 +29212,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -24222,13 +29274,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>461963</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>461963</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -24275,13 +29327,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>461963</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -24337,13 +29389,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -24418,13 +29470,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -24480,13 +29532,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -24537,13 +29589,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>461963</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>461963</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -24590,13 +29642,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>455613</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>468313</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -24653,13 +29705,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -24726,13 +29778,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -24783,13 +29835,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -24845,13 +29897,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>461963</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>461963</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -33051,7 +38103,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="M25" sqref="A1:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33066,7 +38118,7 @@
   <dimension ref="E2:AD40"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+      <selection sqref="A1:AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33805,10 +38857,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E2:AD37"/>
+  <dimension ref="E2:AD34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection sqref="A1:AC31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33900,158 +38952,212 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="5"/>
     </row>
+    <row r="5" spans="5:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+    </row>
     <row r="6" spans="5:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="5:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="5:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="5:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+    <row r="14" spans="5:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
     </row>
-    <row r="10" spans="5:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+    <row r="15" spans="5:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
     </row>
-    <row r="11" spans="5:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+    <row r="20" spans="5:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
     </row>
-    <row r="17" spans="5:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
+    <row r="21" spans="5:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
     </row>
-    <row r="18" spans="5:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
+    <row r="22" spans="5:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
     </row>
     <row r="23" spans="5:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E23" s="1"/>
@@ -34162,193 +39268,112 @@
       <c r="AC26" s="1"/>
     </row>
     <row r="27" spans="5:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
     </row>
     <row r="28" spans="5:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
     </row>
     <row r="29" spans="5:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
     </row>
-    <row r="30" spans="5:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-    </row>
-    <row r="31" spans="5:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-    </row>
-    <row r="32" spans="5:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-    </row>
-    <row r="37" spans="5:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-      <c r="AA37" s="1"/>
-      <c r="AB37" s="1"/>
-      <c r="AC37" s="1"/>
+    <row r="34" spans="5:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34361,7 +39386,7 @@
   <dimension ref="C2:M13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="B2" sqref="B2:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -34378,7 +39403,7 @@
       <c r="J3" s="30"/>
       <c r="K3" s="30"/>
       <c r="L3" s="31"/>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="41" t="s">
         <v>1</v>
       </c>
     </row>
@@ -34393,7 +39418,7 @@
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
       <c r="L4" s="33"/>
-      <c r="M4" s="37"/>
+      <c r="M4" s="41"/>
     </row>
     <row r="5" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="32"/>
@@ -34406,7 +39431,7 @@
       <c r="J5" s="28"/>
       <c r="K5" s="28"/>
       <c r="L5" s="33"/>
-      <c r="M5" s="37"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="6" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="32"/>
@@ -34419,7 +39444,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
       <c r="L6" s="33"/>
-      <c r="M6" s="37"/>
+      <c r="M6" s="41"/>
     </row>
     <row r="7" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="32"/>
@@ -34432,7 +39457,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
       <c r="L7" s="33"/>
-      <c r="M7" s="37"/>
+      <c r="M7" s="41"/>
     </row>
     <row r="8" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="32"/>
@@ -34445,7 +39470,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="37"/>
+      <c r="M8" s="41"/>
     </row>
     <row r="9" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="32"/>
@@ -34458,7 +39483,7 @@
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
       <c r="L9" s="33"/>
-      <c r="M9" s="37"/>
+      <c r="M9" s="41"/>
     </row>
     <row r="10" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="32"/>
@@ -34471,7 +39496,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
       <c r="L10" s="33"/>
-      <c r="M10" s="37"/>
+      <c r="M10" s="41"/>
     </row>
     <row r="11" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="32"/>
@@ -34484,7 +39509,7 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="33"/>
-      <c r="M11" s="37"/>
+      <c r="M11" s="41"/>
     </row>
     <row r="12" spans="3:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="34"/>
@@ -34497,21 +39522,21 @@
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
       <c r="L12" s="36"/>
-      <c r="M12" s="37"/>
+      <c r="M12" s="41"/>
     </row>
     <row r="13" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -34528,7 +39553,7 @@
   <dimension ref="C2:M13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -34545,7 +39570,7 @@
       <c r="J3" s="30"/>
       <c r="K3" s="30"/>
       <c r="L3" s="31"/>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="41" t="s">
         <v>1</v>
       </c>
     </row>
@@ -34560,7 +39585,7 @@
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
       <c r="L4" s="33"/>
-      <c r="M4" s="37"/>
+      <c r="M4" s="41"/>
     </row>
     <row r="5" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="32"/>
@@ -34573,7 +39598,7 @@
       <c r="J5" s="28"/>
       <c r="K5" s="28"/>
       <c r="L5" s="33"/>
-      <c r="M5" s="37"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="6" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="32"/>
@@ -34586,7 +39611,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
       <c r="L6" s="33"/>
-      <c r="M6" s="37"/>
+      <c r="M6" s="41"/>
     </row>
     <row r="7" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="32"/>
@@ -34599,7 +39624,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
       <c r="L7" s="33"/>
-      <c r="M7" s="37"/>
+      <c r="M7" s="41"/>
     </row>
     <row r="8" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="32"/>
@@ -34612,7 +39637,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="37"/>
+      <c r="M8" s="41"/>
     </row>
     <row r="9" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="32"/>
@@ -34625,7 +39650,7 @@
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
       <c r="L9" s="33"/>
-      <c r="M9" s="37"/>
+      <c r="M9" s="41"/>
     </row>
     <row r="10" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="32"/>
@@ -34638,7 +39663,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
       <c r="L10" s="33"/>
-      <c r="M10" s="37"/>
+      <c r="M10" s="41"/>
     </row>
     <row r="11" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="32"/>
@@ -34651,7 +39676,7 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="33"/>
-      <c r="M11" s="37"/>
+      <c r="M11" s="41"/>
     </row>
     <row r="12" spans="3:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="34"/>
@@ -34664,21 +39689,21 @@
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
       <c r="L12" s="36"/>
-      <c r="M12" s="37"/>
+      <c r="M12" s="41"/>
     </row>
     <row r="13" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -34695,7 +39720,7 @@
   <dimension ref="E2:AC37"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T39" sqref="T39"/>
+      <selection activeCell="E2" sqref="E2:Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35224,97 +40249,97 @@
   <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="B2" sqref="B2:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
     </row>
     <row r="9" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
     </row>
     <row r="11" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35326,98 +40351,573 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="B2:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="3:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="40"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="3:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="3:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="3:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="3:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="3:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="3:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38"/>
     </row>
     <row r="11" spans="3:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" spans="3:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="3:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="3:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E2:AD28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:AC18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="5"/>
+    </row>
+    <row r="3" spans="5:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="5"/>
+    </row>
+    <row r="4" spans="5:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="5"/>
+    </row>
+    <row r="5" spans="5:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+    </row>
+    <row r="6" spans="5:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+    </row>
+    <row r="8" spans="5:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+    </row>
+    <row r="9" spans="5:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="5"/>
+    </row>
+    <row r="10" spans="5:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="5"/>
+    </row>
+    <row r="15" spans="5:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="5"/>
+    </row>
+    <row r="16" spans="5:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="5"/>
+    </row>
+    <row r="17" spans="5:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="22" spans="5:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+    </row>
+    <row r="23" spans="5:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+    </row>
+    <row r="24" spans="5:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+    </row>
+    <row r="25" spans="5:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+    </row>
+    <row r="27" spans="5:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="5"/>
+    </row>
+    <row r="28" spans="5:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35430,7 +40930,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:M12"/>
+      <selection sqref="A1:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35445,7 +40945,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35460,7 +40960,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection sqref="A1:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35478,7 +40978,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M10" sqref="A1:M10"/>
+      <selection sqref="A1:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35496,7 +40996,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:M10"/>
+      <selection sqref="A1:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35514,7 +41014,7 @@
   <dimension ref="F12:G12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection sqref="A1:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35538,12 +41038,12 @@
   <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="5" style="6" customWidth="1"/>
     <col min="2" max="7" width="10.28515625" style="6" customWidth="1"/>
     <col min="8" max="16384" width="5" style="6"/>
   </cols>
@@ -35628,7 +41128,7 @@
   <dimension ref="E2:AD27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC27" sqref="A2:AC27"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/article/graphics.xlsx
+++ b/article/graphics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="6" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 1." sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <sheet name="Figure 16." sheetId="30" r:id="rId16"/>
     <sheet name="Figure 17." sheetId="32" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -686,13 +686,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -701,7 +701,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="619124" y="600075"/>
+          <a:off x="619124" y="438150"/>
           <a:ext cx="6686551" cy="714374"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -757,14 +757,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -773,8 +773,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="619124" y="1724024"/>
-          <a:ext cx="6686551" cy="2524125"/>
+          <a:off x="619124" y="1457324"/>
+          <a:ext cx="6686551" cy="4324351"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -832,13 +832,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -847,7 +847,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3733800" y="800100"/>
+          <a:off x="3733800" y="628650"/>
           <a:ext cx="3362325" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -900,13 +900,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -946,8 +946,13 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="pt-PT" sz="1400" b="1"/>
-            <a:t>2. Ray Sorting</a:t>
-          </a:r>
+            <a:t>1. Bounding</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="1" baseline="0"/>
+            <a:t> Box Update</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1400" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -957,13 +962,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1003,13 +1008,12 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="pt-PT" sz="1400" b="1"/>
-            <a:t>3.  Ray</a:t>
+            <a:t>2.</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="pt-PT" sz="1400" b="1" baseline="0"/>
-            <a:t> Hierarchy Creation</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-PT" sz="1400" b="1"/>
+            <a:t> Ray Creation</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1019,13 +1023,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1062,10 +1066,37 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="pt-PT" sz="1400" b="1"/>
-            <a:t>4. Ray Hierarchy Traversal</a:t>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="pt-PT" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>2. Ray Sorting</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1076,13 +1107,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1119,10 +1150,37 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="pt-PT" sz="1400" b="1"/>
-            <a:t>5. Local Intersection Tests</a:t>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="pt-PT" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>3. Ray Hierarchy Creation</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1133,14 +1191,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1152,8 +1210,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3962400" y="1314449"/>
-          <a:ext cx="0" cy="409575"/>
+          <a:off x="3962400" y="1152524"/>
+          <a:ext cx="0" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1189,13 +1247,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>298450</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>63499</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1207,14 +1265,14 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1">
-          <a:off x="2138363" y="2424112"/>
-          <a:ext cx="3648074" cy="12700"/>
+          <a:off x="1290637" y="3109913"/>
+          <a:ext cx="5343525" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector5">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -6266"/>
+            <a:gd name="adj1" fmla="val -4278"/>
             <a:gd name="adj2" fmla="val 28125000"/>
-            <a:gd name="adj3" fmla="val 109138"/>
+            <a:gd name="adj3" fmla="val 106952"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="63500" cap="flat">
@@ -1248,13 +1306,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>461963</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>461963</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1301,13 +1359,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>461963</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>471488</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1354,13 +1412,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>471488</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1406,33 +1464,33 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>461963</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>471488</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="36" name="Elbow Connector 35"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="14" idx="2"/>
+          <a:stCxn id="22" idx="2"/>
           <a:endCxn id="11" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1">
-          <a:off x="4319588" y="3000376"/>
-          <a:ext cx="2047875" cy="9525"/>
+          <a:off x="3733801" y="3586163"/>
+          <a:ext cx="3219450" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector5">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -5582"/>
+            <a:gd name="adj1" fmla="val -7101"/>
             <a:gd name="adj2" fmla="val 20150005"/>
-            <a:gd name="adj3" fmla="val 107442"/>
+            <a:gd name="adj3" fmla="val 107101"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="31750">
@@ -1440,6 +1498,253 @@
             <a:srgbClr val="FFFF00"/>
           </a:solidFill>
           <a:round/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3667125" y="4286250"/>
+          <a:ext cx="3362325" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="pt-PT" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>4. Ray Hierarchy Traversal</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>471488</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>471488</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="17" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5348288" y="4029075"/>
+          <a:ext cx="0" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3667125" y="4876800"/>
+          <a:ext cx="3362325" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="1"/>
+            <a:t>5. Local Intersection Tests</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>471488</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>471488</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5348288" y="4610100"/>
+          <a:ext cx="0" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -38102,8 +38407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M25" sqref="A1:M25"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40454,7 +40759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:AD28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:AC18"/>
     </sheetView>
   </sheetViews>
